--- a/data/trans_orig/P44AS1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44AS1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{957D6102-44F3-401E-A2F3-33138FDCBCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4E3ECAE-DFDA-4110-94F1-6ADDC0D022B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD191728-ABA4-4A72-8367-8BCE30A2D5BB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DFC4DC2-41DD-4F46-B0CB-0E187CEF48B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="754">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2012 (Tasa respuesta: 2,95%)</t>
   </si>
@@ -91,55 +91,55 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
   </si>
   <si>
     <t>43,77%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>61,1%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -157,28 +157,28 @@
     <t>16,87%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -193,55 +193,55 @@
     <t>14,42%</t>
   </si>
   <si>
-    <t>48,49%</t>
+    <t>48,67%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>37,45%</t>
+    <t>36,91%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>67,65%</t>
+    <t>71,67%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>39,26%</t>
+    <t>31,64%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>21,43%</t>
+    <t>23,89%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>32,35%</t>
+    <t>28,33%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -250,19 +250,19 @@
     <t>46,4%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>58,98%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -271,2056 +271,2035 @@
     <t>11,39%</t>
   </si>
   <si>
-    <t>38,61%</t>
+    <t>33,89%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>25,04%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>45,23%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>29,79%</t>
   </si>
 </sst>
 </file>
@@ -2732,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7C050D-1631-4062-8C96-3109CA75F929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117A0771-5A79-48B4-8516-206C0EE9B0DA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3714,13 +3693,13 @@
         <v>1910</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3729,13 +3708,13 @@
         <v>1910</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3729,13 @@
         <v>6328</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3765,13 +3744,13 @@
         <v>2150</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3780,13 +3759,13 @@
         <v>8477</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3821,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3860,7 +3839,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3869,13 +3848,13 @@
         <v>1055</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3884,13 +3863,13 @@
         <v>1055</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,10 +3884,10 @@
         <v>4118</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>68</v>
@@ -3920,13 +3899,13 @@
         <v>2271</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3935,13 +3914,13 @@
         <v>6389</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,7 +3941,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3977,7 +3956,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3992,7 +3971,7 @@
         <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3986,13 @@
         <v>2180</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -4022,13 +4001,13 @@
         <v>3240</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -4037,13 +4016,13 @@
         <v>5420</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,7 +4078,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4117,7 +4096,7 @@
         <v>35</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4132,7 +4111,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4147,7 +4126,7 @@
         <v>35</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4141,13 @@
         <v>3148</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -4177,13 +4156,13 @@
         <v>2023</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -4192,13 +4171,13 @@
         <v>5170</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4192,13 @@
         <v>3114</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4234,7 +4213,7 @@
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -4243,13 +4222,13 @@
         <v>3114</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4243,13 @@
         <v>2986</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -4279,10 +4258,10 @@
         <v>4269</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>68</v>
@@ -4294,13 +4273,13 @@
         <v>7256</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,7 +4335,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4374,7 +4353,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4389,7 +4368,7 @@
         <v>35</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4404,7 +4383,7 @@
         <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4398,13 @@
         <v>5133</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -4434,13 +4413,13 @@
         <v>9900</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -4449,13 +4428,13 @@
         <v>15032</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4455,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4491,7 +4470,7 @@
         <v>35</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4506,7 +4485,7 @@
         <v>35</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4500,13 @@
         <v>10572</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -4536,13 +4515,13 @@
         <v>10672</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -4551,13 +4530,13 @@
         <v>21245</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4592,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4625,13 +4604,13 @@
         <v>6374</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -4640,13 +4619,13 @@
         <v>5372</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -4655,13 +4634,13 @@
         <v>11746</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4655,13 @@
         <v>5393</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4691,13 +4670,13 @@
         <v>5413</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -4706,13 +4685,13 @@
         <v>10805</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4706,13 @@
         <v>7318</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4748,7 +4727,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -4757,13 +4736,13 @@
         <v>7318</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4757,13 @@
         <v>7825</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -4793,13 +4772,13 @@
         <v>4261</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -4808,13 +4787,13 @@
         <v>12085</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4861,13 @@
         <v>13724</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H44" s="7">
         <v>20</v>
@@ -4897,13 +4876,13 @@
         <v>22822</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M44" s="7">
         <v>32</v>
@@ -4912,13 +4891,13 @@
         <v>36546</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4912,13 @@
         <v>44140</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H45" s="7">
         <v>43</v>
@@ -4948,13 +4927,13 @@
         <v>47490</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M45" s="7">
         <v>79</v>
@@ -4963,13 +4942,13 @@
         <v>91630</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4963,13 @@
         <v>10432</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4999,13 +4978,13 @@
         <v>2868</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -5014,13 +4993,13 @@
         <v>13299</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5014,13 @@
         <v>41070</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H47" s="7">
         <v>31</v>
@@ -5050,13 +5029,13 @@
         <v>33771</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M47" s="7">
         <v>69</v>
@@ -5065,13 +5044,13 @@
         <v>74842</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,7 +5106,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5151,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E0A2E-8017-45BA-9AA7-ACDF8ACC9633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D0D457-610A-4250-9615-3793F52321EE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5168,7 +5147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5275,13 +5254,13 @@
         <v>13162</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5290,13 +5269,13 @@
         <v>9911</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5305,13 +5284,13 @@
         <v>23073</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5305,13 @@
         <v>6344</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5341,13 +5320,13 @@
         <v>1991</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5356,13 +5335,13 @@
         <v>8335</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,7 +5362,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5398,7 +5377,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5413,7 +5392,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5407,13 @@
         <v>3865</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5443,13 +5422,13 @@
         <v>3884</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5458,13 +5437,13 @@
         <v>7749</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5511,13 @@
         <v>1735</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5547,13 +5526,13 @@
         <v>1169</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5562,13 +5541,13 @@
         <v>2904</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5562,13 @@
         <v>3836</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5598,13 +5577,13 @@
         <v>2430</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5613,13 +5592,13 @@
         <v>6266</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5613,13 @@
         <v>865</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5649,13 +5628,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5664,13 +5643,13 @@
         <v>1974</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5664,13 @@
         <v>2883</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5700,13 +5679,13 @@
         <v>996</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5715,13 +5694,13 @@
         <v>3879</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5768,13 @@
         <v>2089</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5804,13 +5783,13 @@
         <v>2918</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5819,13 +5798,13 @@
         <v>5007</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5819,13 @@
         <v>4532</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5855,13 +5834,13 @@
         <v>2011</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -5870,13 +5849,13 @@
         <v>6543</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5870,13 @@
         <v>2975</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5906,13 +5885,13 @@
         <v>973</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5921,13 +5900,13 @@
         <v>3948</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5921,13 @@
         <v>11291</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5957,13 +5936,13 @@
         <v>14051</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5972,13 +5951,13 @@
         <v>25343</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6025,13 @@
         <v>3625</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6061,13 +6040,13 @@
         <v>1016</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6076,13 +6055,13 @@
         <v>4641</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6076,13 @@
         <v>12960</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6112,13 +6091,13 @@
         <v>13602</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -6127,13 +6106,13 @@
         <v>26562</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6127,13 @@
         <v>1631</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -6163,13 +6142,13 @@
         <v>1205</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -6178,13 +6157,13 @@
         <v>2836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6178,13 @@
         <v>7809</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6214,13 +6193,13 @@
         <v>4597</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6229,13 +6208,13 @@
         <v>12406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,7 +6270,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6309,7 +6288,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6324,7 +6303,7 @@
         <v>35</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6339,7 +6318,7 @@
         <v>35</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6333,7 @@
         <v>989</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>34</v>
@@ -6369,7 +6348,7 @@
         <v>1961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>34</v>
@@ -6384,13 +6363,13 @@
         <v>2951</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6390,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6420,13 +6399,13 @@
         <v>975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6435,13 +6414,13 @@
         <v>975</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>374</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,7 +6435,7 @@
         <v>1983</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>34</v>
@@ -6471,7 +6450,7 @@
         <v>1052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>34</v>
@@ -6486,13 +6465,13 @@
         <v>3035</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>315</v>
+        <v>375</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,7 +6527,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6560,13 +6539,13 @@
         <v>2800</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6575,13 +6554,13 @@
         <v>2036</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6590,13 +6569,13 @@
         <v>4836</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6590,13 @@
         <v>5624</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -6626,13 +6605,13 @@
         <v>3249</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -6641,13 +6620,13 @@
         <v>8873</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,7 +6647,7 @@
         <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6698,7 +6677,7 @@
         <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,13 +6692,13 @@
         <v>1963</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6728,13 +6707,13 @@
         <v>3319</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6743,13 +6722,13 @@
         <v>5282</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6784,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6817,13 +6796,13 @@
         <v>2063</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6832,13 +6811,13 @@
         <v>897</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6847,13 +6826,13 @@
         <v>2961</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>409</v>
+        <v>263</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6847,13 @@
         <v>14855</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>413</v>
+        <v>306</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -6883,13 +6862,13 @@
         <v>16132</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -6898,13 +6877,13 @@
         <v>30988</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>184</v>
+        <v>413</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>157</v>
+        <v>414</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6898,13 @@
         <v>2063</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6934,13 +6913,13 @@
         <v>2129</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -6949,13 +6928,13 @@
         <v>4192</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>424</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6949,13 @@
         <v>21337</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -6985,13 +6964,13 @@
         <v>9040</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -7000,13 +6979,13 @@
         <v>30377</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7041,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7074,13 +7053,13 @@
         <v>6905</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>435</v>
+        <v>93</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -7089,13 +7068,13 @@
         <v>5381</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -7104,13 +7083,13 @@
         <v>12286</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7104,13 @@
         <v>10819</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -7140,13 +7119,13 @@
         <v>6747</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -7155,13 +7134,13 @@
         <v>17566</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7155,13 @@
         <v>1572</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7197,7 +7176,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -7206,13 +7185,13 @@
         <v>1572</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,13 +7206,13 @@
         <v>7110</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -7242,13 +7221,13 @@
         <v>1342</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -7257,13 +7236,13 @@
         <v>8452</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7310,13 @@
         <v>32380</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H44" s="7">
         <v>21</v>
@@ -7346,13 +7325,13 @@
         <v>23328</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M44" s="7">
         <v>50</v>
@@ -7361,13 +7340,13 @@
         <v>55708</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7361,13 @@
         <v>59960</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>473</v>
+        <v>348</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H45" s="7">
         <v>40</v>
@@ -7397,13 +7376,13 @@
         <v>48124</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M45" s="7">
         <v>98</v>
@@ -7412,13 +7391,13 @@
         <v>108084</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7412,13 @@
         <v>9107</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -7448,13 +7427,13 @@
         <v>6390</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -7463,13 +7442,13 @@
         <v>15497</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,13 +7463,13 @@
         <v>58240</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H47" s="7">
         <v>33</v>
@@ -7499,13 +7478,13 @@
         <v>38283</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M47" s="7">
         <v>91</v>
@@ -7514,13 +7493,13 @@
         <v>96523</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,7 +7555,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7600,7 +7579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443535EB-5DBD-4280-BA1E-48942DF1BCEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21BAACF-C681-465C-9F71-67B068A9A5EA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7617,7 +7596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7730,7 +7709,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7745,7 +7724,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7760,7 +7739,7 @@
         <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7754,13 @@
         <v>20804</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -7790,13 +7769,13 @@
         <v>6545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>506</v>
+        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -7805,13 +7784,13 @@
         <v>27349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>509</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7805,13 @@
         <v>44121</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>331</v>
+        <v>505</v>
       </c>
       <c r="H6" s="7">
         <v>55</v>
@@ -7841,13 +7820,13 @@
         <v>25557</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M6" s="7">
         <v>115</v>
@@ -7856,13 +7835,13 @@
         <v>69678</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7856,13 @@
         <v>1517</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>513</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -7892,13 +7871,13 @@
         <v>1974</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -7907,13 +7886,13 @@
         <v>3491</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,7 +7966,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8002,7 +7981,7 @@
         <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8017,7 +7996,7 @@
         <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8011,13 @@
         <v>7852</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -8047,13 +8026,13 @@
         <v>4516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -8065,10 +8044,10 @@
         <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8062,13 @@
         <v>35279</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -8098,13 +8077,13 @@
         <v>25311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -8113,13 +8092,13 @@
         <v>60590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8113,13 @@
         <v>22701</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -8149,13 +8128,13 @@
         <v>12950</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -8164,13 +8143,13 @@
         <v>35651</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8217,13 @@
         <v>1903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8259,7 +8238,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8268,13 +8247,13 @@
         <v>1903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8268,13 @@
         <v>18749</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -8304,13 +8283,13 @@
         <v>13810</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -8319,13 +8298,13 @@
         <v>32559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8319,13 @@
         <v>34215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -8355,13 +8334,13 @@
         <v>44717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -8370,13 +8349,13 @@
         <v>78932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8370,13 @@
         <v>4612</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -8406,13 +8385,13 @@
         <v>1704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -8421,13 +8400,13 @@
         <v>6316</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,7 +8480,7 @@
         <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8516,7 +8495,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8531,7 +8510,7 @@
         <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8546,13 +8525,13 @@
         <v>21128</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -8561,13 +8540,13 @@
         <v>29800</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -8576,13 +8555,13 @@
         <v>50928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>595</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,13 +8576,13 @@
         <v>32252</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -8612,13 +8591,13 @@
         <v>31307</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>172</v>
+        <v>597</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -8627,13 +8606,13 @@
         <v>63559</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8648,13 +8627,13 @@
         <v>2186</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -8663,13 +8642,13 @@
         <v>2093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>604</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -8678,13 +8657,13 @@
         <v>4279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>305</v>
+        <v>607</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8740,7 +8719,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8752,13 +8731,13 @@
         <v>565</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -8767,13 +8746,13 @@
         <v>455</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -8782,13 +8761,13 @@
         <v>1021</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,10 +8800,10 @@
         <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -8833,13 +8812,13 @@
         <v>13902</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8854,13 +8833,13 @@
         <v>3607</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -8869,13 +8848,13 @@
         <v>7651</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -8884,13 +8863,13 @@
         <v>11258</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8905,13 +8884,13 @@
         <v>1726</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>635</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>636</v>
+        <v>448</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -8920,13 +8899,13 @@
         <v>1611</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="M27" s="7">
         <v>7</v>
@@ -8935,13 +8914,13 @@
         <v>3337</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8997,7 +8976,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9015,7 +8994,7 @@
         <v>35</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>643</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9030,7 +9009,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9045,7 +9024,7 @@
         <v>35</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9060,13 +9039,13 @@
         <v>15206</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -9075,13 +9054,13 @@
         <v>5319</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -9090,13 +9069,13 @@
         <v>20525</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>509</v>
+        <v>649</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9111,13 +9090,13 @@
         <v>19191</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>655</v>
       </c>
       <c r="H31" s="7">
         <v>47</v>
@@ -9126,13 +9105,13 @@
         <v>24463</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="M31" s="7">
         <v>76</v>
@@ -9141,13 +9120,13 @@
         <v>43654</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9162,13 +9141,13 @@
         <v>6448</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -9177,13 +9156,13 @@
         <v>3088</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -9192,13 +9171,13 @@
         <v>9536</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>668</v>
+        <v>157</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>669</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9254,7 +9233,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9266,13 +9245,13 @@
         <v>1107</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>671</v>
+        <v>549</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9281,13 +9260,13 @@
         <v>639</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9296,13 +9275,13 @@
         <v>1746</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>676</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9317,13 +9296,13 @@
         <v>42133</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>150</v>
+        <v>621</v>
       </c>
       <c r="H35" s="7">
         <v>53</v>
@@ -9332,13 +9311,13 @@
         <v>35016</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="M35" s="7">
         <v>102</v>
@@ -9347,13 +9326,13 @@
         <v>77149</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9368,13 +9347,13 @@
         <v>43008</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H36" s="7">
         <v>123</v>
@@ -9383,13 +9362,13 @@
         <v>77410</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M36" s="7">
         <v>171</v>
@@ -9398,13 +9377,13 @@
         <v>120419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>476</v>
+        <v>685</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9419,13 +9398,13 @@
         <v>24727</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>694</v>
+        <v>425</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>695</v>
+        <v>291</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -9434,13 +9413,13 @@
         <v>10647</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -9449,13 +9428,13 @@
         <v>35374</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9511,7 +9490,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9529,7 +9508,7 @@
         <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>671</v>
+        <v>549</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9544,7 +9523,7 @@
         <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9559,7 +9538,7 @@
         <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9574,13 +9553,13 @@
         <v>26617</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -9589,13 +9568,13 @@
         <v>27420</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="M40" s="7">
         <v>72</v>
@@ -9604,13 +9583,13 @@
         <v>54036</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>711</v>
+        <v>580</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9625,13 +9604,13 @@
         <v>112593</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="H41" s="7">
         <v>153</v>
@@ -9640,13 +9619,13 @@
         <v>100918</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="M41" s="7">
         <v>298</v>
@@ -9655,13 +9634,13 @@
         <v>213510</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>250</v>
+        <v>712</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9676,13 +9655,13 @@
         <v>63738</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="H42" s="7">
         <v>39</v>
@@ -9691,13 +9670,13 @@
         <v>26452</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="M42" s="7">
         <v>54</v>
@@ -9706,13 +9685,13 @@
         <v>90190</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>528</v>
+        <v>721</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9780,13 +9759,13 @@
         <v>3575</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -9795,13 +9774,13 @@
         <v>1095</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>733</v>
+        <v>576</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -9810,13 +9789,13 @@
         <v>4670</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9831,13 +9810,13 @@
         <v>160844</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="H45" s="7">
         <v>226</v>
@@ -9846,13 +9825,13 @@
         <v>127973</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>65</v>
+        <v>733</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="M45" s="7">
         <v>438</v>
@@ -9861,13 +9840,13 @@
         <v>288816</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9882,13 +9861,13 @@
         <v>324265</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="H46" s="7">
         <v>568</v>
@@ -9897,13 +9876,13 @@
         <v>337335</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="M46" s="7">
         <v>974</v>
@@ -9912,13 +9891,13 @@
         <v>661600</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9933,13 +9912,13 @@
         <v>127655</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="H47" s="7">
         <v>101</v>
@@ -9948,13 +9927,13 @@
         <v>60519</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>286</v>
+        <v>750</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="M47" s="7">
         <v>188</v>
@@ -9963,13 +9942,13 @@
         <v>188174</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>759</v>
+        <v>603</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10025,7 +10004,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44AS1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44AS1-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4E3ECAE-DFDA-4110-94F1-6ADDC0D022B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{928E358C-466D-4865-B48D-A9DE9FD0CFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DFC4DC2-41DD-4F46-B0CB-0E187CEF48B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B63C3479-1EFC-4C21-B352-14B5527D0342}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -91,55 +91,55 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>43,77%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
   </si>
   <si>
     <t>61,1%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -157,28 +157,28 @@
     <t>16,87%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -193,1929 +193,1935 @@
     <t>14,42%</t>
   </si>
   <si>
-    <t>48,67%</t>
+    <t>51,38%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>36,91%</t>
+    <t>43,41%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>71,67%</t>
+    <t>67,73%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2016 (Tasa respuesta: 3,85%)</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
     <t>8,61%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
     <t>15,07%</t>
   </si>
   <si>
@@ -2185,9 +2191,6 @@
     <t>31,41%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
     <t>65,09%</t>
   </si>
   <si>
@@ -2255,9 +2258,6 @@
   </si>
   <si>
     <t>52,61%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
   </si>
   <si>
     <t>59,06%</t>
@@ -2711,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117A0771-5A79-48B4-8516-206C0EE9B0DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF7F460-93B3-4774-9E59-2FEC823B21A5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3693,13 +3693,13 @@
         <v>1910</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3708,13 +3708,13 @@
         <v>1910</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3729,13 @@
         <v>6328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3744,13 +3744,13 @@
         <v>2150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3759,13 +3759,13 @@
         <v>8477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3839,7 +3839,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3848,13 +3848,13 @@
         <v>1055</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3863,13 +3863,13 @@
         <v>1055</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,10 +3884,10 @@
         <v>4118</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>68</v>
@@ -3899,13 +3899,13 @@
         <v>2271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3914,13 +3914,13 @@
         <v>6389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,7 +3941,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3986,13 @@
         <v>2180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -4001,13 +4001,13 @@
         <v>3240</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -4016,13 +4016,13 @@
         <v>5420</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,7 +4078,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4096,7 +4096,7 @@
         <v>35</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>35</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4141,13 @@
         <v>3148</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -4156,13 +4156,13 @@
         <v>2023</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -4171,13 +4171,13 @@
         <v>5170</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,10 +4192,10 @@
         <v>3114</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>140</v>
@@ -4213,7 +4213,7 @@
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -4416,10 +4416,10 @@
         <v>159</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -4428,13 +4428,13 @@
         <v>15032</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4500,13 @@
         <v>10572</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -4515,13 +4515,13 @@
         <v>10672</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -4530,13 +4530,13 @@
         <v>21245</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,7 +4592,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4604,13 +4604,13 @@
         <v>6374</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -4619,13 +4619,13 @@
         <v>5372</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -4634,13 +4634,13 @@
         <v>11746</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,10 +4658,10 @@
         <v>141</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H40" s="7">
         <v>5</v>
@@ -4670,13 +4670,13 @@
         <v>5413</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -4685,13 +4685,13 @@
         <v>10805</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>7318</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -4736,13 +4736,13 @@
         <v>7318</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4757,13 @@
         <v>7825</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -4772,13 +4772,13 @@
         <v>4261</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -4787,13 +4787,13 @@
         <v>12085</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4861,13 @@
         <v>13724</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H44" s="7">
         <v>20</v>
@@ -4876,13 +4876,13 @@
         <v>22822</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M44" s="7">
         <v>32</v>
@@ -4891,13 +4891,13 @@
         <v>36546</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4912,13 @@
         <v>44140</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H45" s="7">
         <v>43</v>
@@ -4927,13 +4927,13 @@
         <v>47490</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M45" s="7">
         <v>79</v>
@@ -4942,13 +4942,13 @@
         <v>91630</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4963,13 @@
         <v>10432</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -4978,13 +4978,13 @@
         <v>2868</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -4993,13 +4993,13 @@
         <v>13299</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5014,13 @@
         <v>41070</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H47" s="7">
         <v>31</v>
@@ -5029,13 +5029,13 @@
         <v>33771</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M47" s="7">
         <v>69</v>
@@ -5044,13 +5044,13 @@
         <v>74842</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5106,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5130,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D0D457-610A-4250-9615-3793F52321EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4665C0C-BF66-4C20-BB11-E08F845DF11C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5147,7 +5147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5254,13 +5254,13 @@
         <v>13162</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5269,13 +5269,13 @@
         <v>9911</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5284,13 +5284,13 @@
         <v>23073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5305,13 @@
         <v>6344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5326,7 +5326,7 @@
         <v>34</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5335,13 +5335,13 @@
         <v>8335</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,7 +5362,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5407,13 @@
         <v>3865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5422,13 +5422,13 @@
         <v>3884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5437,13 +5437,13 @@
         <v>7749</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5511,13 @@
         <v>1735</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5526,13 +5526,13 @@
         <v>1169</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5541,13 +5541,13 @@
         <v>2904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5562,13 @@
         <v>3836</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5577,13 +5577,13 @@
         <v>2430</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5592,13 +5592,13 @@
         <v>6266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5613,13 @@
         <v>865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5628,13 +5628,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5643,13 +5643,13 @@
         <v>1974</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5664,13 @@
         <v>2883</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5679,13 +5679,13 @@
         <v>996</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5694,13 +5694,13 @@
         <v>3879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5768,13 @@
         <v>2089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5783,13 +5783,13 @@
         <v>2918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5798,13 +5798,13 @@
         <v>5007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5819,13 @@
         <v>4532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5834,13 +5834,13 @@
         <v>2011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -5849,13 +5849,13 @@
         <v>6543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5870,13 @@
         <v>2975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5885,13 +5885,13 @@
         <v>973</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5900,13 +5900,13 @@
         <v>3948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5921,13 @@
         <v>11291</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5936,13 +5936,13 @@
         <v>14051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5951,13 +5951,13 @@
         <v>25343</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6025,13 @@
         <v>3625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6040,13 +6040,13 @@
         <v>1016</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6055,13 +6055,13 @@
         <v>4641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6076,13 @@
         <v>12960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6091,13 +6091,13 @@
         <v>13602</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -6106,13 +6106,13 @@
         <v>26562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6127,13 @@
         <v>1631</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -6142,13 +6142,13 @@
         <v>1205</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -6157,13 +6157,13 @@
         <v>2836</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6178,13 @@
         <v>7809</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6193,13 +6193,13 @@
         <v>4597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6208,13 +6208,13 @@
         <v>12406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,7 +6270,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6288,7 +6288,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6303,7 +6303,7 @@
         <v>35</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>35</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6333,7 @@
         <v>989</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>34</v>
@@ -6348,7 +6348,7 @@
         <v>1961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>34</v>
@@ -6363,13 +6363,13 @@
         <v>2951</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6390,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6399,13 +6399,13 @@
         <v>975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6414,13 +6414,13 @@
         <v>975</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6435,7 @@
         <v>1983</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>34</v>
@@ -6450,13 +6450,13 @@
         <v>1052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>68</v>
+        <v>372</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -6465,13 +6465,13 @@
         <v>3035</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6527,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6539,13 +6539,13 @@
         <v>2800</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6554,13 +6554,13 @@
         <v>2036</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6569,13 +6569,13 @@
         <v>4836</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6590,13 @@
         <v>5624</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -6605,13 +6605,13 @@
         <v>3249</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -6620,13 +6620,13 @@
         <v>8873</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,7 +6647,7 @@
         <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6677,7 +6677,7 @@
         <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6692,13 @@
         <v>1963</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6707,13 +6707,13 @@
         <v>3319</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -6722,13 +6722,13 @@
         <v>5282</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6796,13 @@
         <v>2063</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>403</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6811,13 +6811,13 @@
         <v>897</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -6826,13 +6826,13 @@
         <v>2961</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>263</v>
+        <v>404</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,10 +6847,10 @@
         <v>14855</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>409</v>
@@ -6898,7 +6898,7 @@
         <v>2063</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>34</v>
@@ -6919,7 +6919,7 @@
         <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>418</v>
+        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -6928,13 +6928,13 @@
         <v>4192</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,7 +7041,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7056,10 +7056,10 @@
         <v>430</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>93</v>
+        <v>431</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -7068,10 +7068,10 @@
         <v>5381</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>433</v>
+        <v>97</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>434</v>
@@ -7176,7 +7176,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -7328,10 +7328,10 @@
         <v>462</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M44" s="7">
         <v>50</v>
@@ -7340,13 +7340,13 @@
         <v>55708</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,10 +7361,10 @@
         <v>59960</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>348</v>
+        <v>467</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>468</v>
@@ -7376,7 +7376,7 @@
         <v>48124</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>469</v>
@@ -7466,10 +7466,10 @@
         <v>483</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H47" s="7">
         <v>33</v>
@@ -7478,13 +7478,13 @@
         <v>38283</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M47" s="7">
         <v>91</v>
@@ -7493,13 +7493,13 @@
         <v>96523</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,7 +7555,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21BAACF-C681-465C-9F71-67B068A9A5EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF18D8C9-944A-46BC-8F36-C7E4220BB9D5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7596,7 +7596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7709,7 +7709,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7754,13 @@
         <v>20804</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -7769,13 +7769,13 @@
         <v>6545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -7784,13 +7784,13 @@
         <v>27349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7805,13 @@
         <v>44121</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H6" s="7">
         <v>55</v>
@@ -7820,13 +7820,13 @@
         <v>25557</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M6" s="7">
         <v>115</v>
@@ -7835,13 +7835,13 @@
         <v>69678</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7856,13 @@
         <v>1517</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -7871,13 +7871,13 @@
         <v>1974</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -7886,13 +7886,13 @@
         <v>3491</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,7 +7966,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +8011,13 @@
         <v>7852</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -8026,13 +8026,13 @@
         <v>4516</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -8044,10 +8044,10 @@
         <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8062,13 @@
         <v>35279</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -8077,13 +8077,13 @@
         <v>25311</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -8092,13 +8092,13 @@
         <v>60590</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8113,13 @@
         <v>22701</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -8128,13 +8128,13 @@
         <v>12950</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -8143,13 +8143,13 @@
         <v>35651</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,13 +8217,13 @@
         <v>1903</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8238,7 +8238,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8247,13 +8247,13 @@
         <v>1903</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>553</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>554</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +8268,13 @@
         <v>18749</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -8283,13 +8283,13 @@
         <v>13810</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -8298,13 +8298,13 @@
         <v>32559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +8319,13 @@
         <v>34215</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -8334,13 +8334,13 @@
         <v>44717</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -8349,13 +8349,13 @@
         <v>78932</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8370,13 +8370,13 @@
         <v>4612</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -8385,13 +8385,13 @@
         <v>1704</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -8400,13 +8400,13 @@
         <v>6316</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8480,7 +8480,7 @@
         <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8495,7 +8495,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8525,13 +8525,13 @@
         <v>21128</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -8540,13 +8540,13 @@
         <v>29800</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -8555,13 +8555,13 @@
         <v>50928</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8576,13 +8576,13 @@
         <v>32252</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -8591,13 +8591,13 @@
         <v>31307</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -8606,13 +8606,13 @@
         <v>63559</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,13 +8627,13 @@
         <v>2186</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -8642,13 +8642,13 @@
         <v>2093</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -8657,13 +8657,13 @@
         <v>4279</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8719,7 +8719,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8731,13 +8731,13 @@
         <v>565</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -8746,13 +8746,13 @@
         <v>455</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -8761,13 +8761,13 @@
         <v>1021</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8782,13 +8782,13 @@
         <v>8353</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -8797,10 +8797,10 @@
         <v>5549</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>620</v>
@@ -8884,13 +8884,13 @@
         <v>1726</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8994,7 +8994,7 @@
         <v>35</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>641</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>35</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9039,13 +9039,13 @@
         <v>15206</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -9054,13 +9054,13 @@
         <v>5319</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -9069,13 +9069,13 @@
         <v>20525</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>650</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,13 +9171,13 @@
         <v>9536</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>157</v>
+        <v>666</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>202</v>
+        <v>667</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9245,13 +9245,13 @@
         <v>1107</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9260,13 +9260,13 @@
         <v>639</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9275,13 +9275,13 @@
         <v>1746</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9296,10 +9296,10 @@
         <v>42133</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>621</v>
@@ -9311,13 +9311,13 @@
         <v>35016</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M35" s="7">
         <v>102</v>
@@ -9326,13 +9326,13 @@
         <v>77149</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9347,13 +9347,13 @@
         <v>43008</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H36" s="7">
         <v>123</v>
@@ -9362,13 +9362,13 @@
         <v>77410</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M36" s="7">
         <v>171</v>
@@ -9377,13 +9377,13 @@
         <v>120419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9398,13 +9398,13 @@
         <v>24727</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>425</v>
+        <v>691</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -9413,13 +9413,13 @@
         <v>10647</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>691</v>
+        <v>364</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -9428,13 +9428,13 @@
         <v>35374</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9490,7 +9490,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9508,7 +9508,7 @@
         <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9523,7 +9523,7 @@
         <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9553,13 +9553,13 @@
         <v>26617</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -9568,13 +9568,13 @@
         <v>27420</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="M40" s="7">
         <v>72</v>
@@ -9583,13 +9583,13 @@
         <v>54036</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9604,13 +9604,13 @@
         <v>112593</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H41" s="7">
         <v>153</v>
@@ -9619,13 +9619,13 @@
         <v>100918</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="M41" s="7">
         <v>298</v>
@@ -9634,13 +9634,13 @@
         <v>213510</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9655,13 +9655,13 @@
         <v>63738</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>715</v>
+        <v>206</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H42" s="7">
         <v>39</v>
@@ -9670,13 +9670,13 @@
         <v>26452</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M42" s="7">
         <v>54</v>
@@ -9685,13 +9685,13 @@
         <v>90190</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9759,13 +9759,13 @@
         <v>3575</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -9774,13 +9774,13 @@
         <v>1095</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -9789,13 +9789,13 @@
         <v>4670</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9810,13 +9810,13 @@
         <v>160844</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H45" s="7">
         <v>226</v>
@@ -9825,13 +9825,13 @@
         <v>127973</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M45" s="7">
         <v>438</v>
@@ -9840,13 +9840,13 @@
         <v>288816</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9861,10 +9861,10 @@
         <v>324265</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>739</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>740</v>
@@ -9915,7 +9915,7 @@
         <v>747</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>748</v>
@@ -9945,7 +9945,7 @@
         <v>752</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>753</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
